--- a/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T01:41:45+00:00</t>
+    <t>2022-09-03T02:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T02:24:58+00:00</t>
+    <t>2022-09-03T03:13:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T03:13:39+00:00</t>
+    <t>2022-09-03T03:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-conformance-level/CodeSystem-jp-medication-instruction-for-dispense-jhsp0002-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T03:39:37+00:00</t>
+    <t>2022-09-03T06:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
